--- a/test25.xlsx
+++ b/test25.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>passed</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t xml:space="preserve">Выпал список 144 гц мониторов </t>
+  </si>
+  <si>
+    <t>пройден</t>
   </si>
 </sst>
 </file>
@@ -913,6 +916,27 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -921,27 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1284,7 +1287,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1340,10 +1343,10 @@
   <dimension ref="A1:DU61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="12" ySplit="7" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="7" topLeftCell="M30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1434,7 +1437,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="17">
         <f>COUNTIF(M$8:M$42,"passed")</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="17">
@@ -1478,7 +1481,9 @@
         <v>7</v>
       </c>
       <c r="L3" s="11"/>
-      <c r="M3" s="22"/>
+      <c r="M3" s="22">
+        <v>44162</v>
+      </c>
       <c r="N3" s="11"/>
       <c r="O3" s="22"/>
       <c r="P3" s="11"/>
@@ -1564,44 +1569,44 @@
     </row>
     <row r="6" spans="1:125" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="47" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="42"/>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="49" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="47"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="53" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="11"/>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="53" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="11"/>
-      <c r="Q6" s="46"/>
+      <c r="Q6" s="53"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="46"/>
+      <c r="S6" s="53"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="46"/>
+      <c r="U6" s="53"/>
       <c r="V6" s="11"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1611,9 +1616,9 @@
     </row>
     <row r="7" spans="1:125" ht="66.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="42" t="s">
         <v>22</v>
       </c>
@@ -1623,20 +1628,20 @@
       <c r="G7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="48"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="46"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="46"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="46"/>
+      <c r="Q7" s="53"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="46"/>
+      <c r="S7" s="53"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="46"/>
+      <c r="U7" s="53"/>
       <c r="V7" s="11"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1669,7 +1674,9 @@
       <c r="J8" s="21"/>
       <c r="K8" s="20"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N8" s="11"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
@@ -1708,7 +1715,9 @@
       <c r="J9" s="28"/>
       <c r="K9" s="20"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N9" s="11"/>
       <c r="O9" s="6"/>
       <c r="P9" s="11"/>
@@ -1747,7 +1756,9 @@
       <c r="J10" s="21"/>
       <c r="K10" s="20"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N10" s="11"/>
       <c r="O10" s="6"/>
       <c r="P10" s="11"/>
@@ -1786,7 +1797,9 @@
       <c r="J11" s="32"/>
       <c r="K11" s="31"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="33"/>
+      <c r="M11" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="N11" s="34"/>
       <c r="O11" s="35"/>
       <c r="P11" s="36"/>
@@ -1923,7 +1936,9 @@
       <c r="J12" s="21"/>
       <c r="K12" s="20"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="6"/>
       <c r="P12" s="11"/>
@@ -1962,7 +1977,9 @@
       <c r="J13" s="21"/>
       <c r="K13" s="20"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N13" s="11"/>
       <c r="O13" s="6"/>
       <c r="P13" s="11"/>
@@ -2003,7 +2020,9 @@
       <c r="J14" s="21"/>
       <c r="K14" s="20"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N14" s="11"/>
       <c r="O14" s="6"/>
       <c r="P14" s="11"/>
@@ -2042,7 +2061,9 @@
       <c r="J15" s="21"/>
       <c r="K15" s="20"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N15" s="11"/>
       <c r="O15" s="6"/>
       <c r="P15" s="11"/>
@@ -2081,7 +2102,9 @@
       <c r="J16" s="21"/>
       <c r="K16" s="20"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N16" s="11"/>
       <c r="O16" s="6"/>
       <c r="P16" s="11"/>
@@ -2119,7 +2142,9 @@
       <c r="J17" s="21"/>
       <c r="K17" s="20"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="6"/>
       <c r="P17" s="11"/>
@@ -2158,7 +2183,9 @@
       <c r="J18" s="21"/>
       <c r="K18" s="20"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N18" s="11"/>
       <c r="O18" s="6"/>
       <c r="P18" s="11"/>
@@ -2197,7 +2224,9 @@
       <c r="J19" s="21"/>
       <c r="K19" s="20"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="6"/>
       <c r="P19" s="11"/>
@@ -2236,7 +2265,9 @@
       <c r="J20" s="21"/>
       <c r="K20" s="20"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N20" s="11"/>
       <c r="O20" s="6"/>
       <c r="P20" s="11"/>
@@ -2275,7 +2306,9 @@
       <c r="J21" s="21"/>
       <c r="K21" s="20"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N21" s="11"/>
       <c r="O21" s="6"/>
       <c r="P21" s="11"/>
@@ -2314,7 +2347,9 @@
       <c r="J22" s="21"/>
       <c r="K22" s="20"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N22" s="11"/>
       <c r="O22" s="6"/>
       <c r="P22" s="11"/>
@@ -2353,7 +2388,9 @@
       <c r="J23" s="21"/>
       <c r="K23" s="20"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N23" s="11"/>
       <c r="O23" s="6"/>
       <c r="P23" s="11"/>
@@ -2392,7 +2429,9 @@
       <c r="J24" s="21"/>
       <c r="K24" s="20"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N24" s="11"/>
       <c r="O24" s="6"/>
       <c r="P24" s="11"/>
@@ -2431,7 +2470,9 @@
       <c r="J25" s="21"/>
       <c r="K25" s="20"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N25" s="11"/>
       <c r="O25" s="6"/>
       <c r="P25" s="11"/>
@@ -2472,7 +2513,9 @@
       <c r="J26" s="21"/>
       <c r="K26" s="20"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N26" s="11"/>
       <c r="O26" s="6"/>
       <c r="P26" s="11"/>
@@ -2511,7 +2554,9 @@
       <c r="J27" s="21"/>
       <c r="K27" s="20"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="6"/>
+      <c r="M27" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N27" s="11"/>
       <c r="O27" s="6"/>
       <c r="P27" s="11"/>
@@ -2550,7 +2595,9 @@
       <c r="J28" s="21"/>
       <c r="K28" s="20"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N28" s="11"/>
       <c r="O28" s="6"/>
       <c r="P28" s="11"/>
@@ -2589,7 +2636,9 @@
       <c r="J29" s="21"/>
       <c r="K29" s="20"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N29" s="11"/>
       <c r="O29" s="6"/>
       <c r="P29" s="11"/>
@@ -2630,7 +2679,9 @@
       <c r="J30" s="28"/>
       <c r="K30" s="20"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="6"/>
+      <c r="M30" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N30" s="11"/>
       <c r="O30" s="6"/>
       <c r="P30" s="11"/>
@@ -2667,7 +2718,9 @@
       <c r="J31" s="21"/>
       <c r="K31" s="20"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="6"/>
+      <c r="M31" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N31" s="11"/>
       <c r="O31" s="6"/>
       <c r="P31" s="11"/>
@@ -2706,7 +2759,9 @@
       <c r="J32" s="21"/>
       <c r="K32" s="20"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="6"/>
+      <c r="M32" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N32" s="11"/>
       <c r="O32" s="6"/>
       <c r="P32" s="11"/>
@@ -3506,12 +3561,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="H6:H7"/>
@@ -3519,8 +3568,14 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M12:M42 S12:S42 Q12:Q42 U12:U42 U8:U10 Q8:Q10 S8:S10 M8:M10 O8:O10 O12:O42">
       <formula1>Result</formula1>
     </dataValidation>
